--- a/reformatted k-5 math.xlsx
+++ b/reformatted k-5 math.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="200" windowWidth="16680" windowHeight="15360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-1160" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Standards first" sheetId="2" r:id="rId1"/>
     <sheet name="raw objectives-some need stnds" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Standards first'!$A$1:$B$270</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="392">
   <si>
     <t>Count up to 20</t>
   </si>
@@ -706,9 +709,6 @@
     <t>Calculate a number as a percentage of another (x is y% of z)</t>
   </si>
   <si>
-    <t>Solve word problems using percentages</t>
-  </si>
-  <si>
     <t>Decimals</t>
   </si>
   <si>
@@ -1178,6 +1178,27 @@
   </si>
   <si>
     <t>4.OA.4B</t>
+  </si>
+  <si>
+    <t>2.OA.1</t>
+  </si>
+  <si>
+    <t>2.NBT.5, 2.NBT.6</t>
+  </si>
+  <si>
+    <t>5.NF.4a</t>
+  </si>
+  <si>
+    <t>4.NF.4a</t>
+  </si>
+  <si>
+    <t>5.NF.6</t>
+  </si>
+  <si>
+    <t>2.NBT.6</t>
+  </si>
+  <si>
+    <t>4.NBT.4B</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1340,8 +1361,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1387,8 +1434,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,9 +1476,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1448,7 +1510,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1471,7 +1532,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -1488,12 +1548,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1525,13 +1579,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1554,6 +1634,15 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1576,6 +1665,15 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1905,163 +2003,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:Q270"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206:A253"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>319</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>319</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>323</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>315</v>
+        <v>323</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>286</v>
+        <v>259</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>321</v>
+        <v>259</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>40</v>
+      <c r="A8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>286</v>
+      <c r="A11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
-        <v>317</v>
+      <c r="A12" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>315</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>321</v>
+      <c r="A13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="D15" s="21"/>
+      <c r="A15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="A16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>336</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="9"/>
@@ -2069,175 +2167,175 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>323</v>
+        <v>325</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>259</v>
+        <v>332</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="21"/>
+      <c r="A25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="A26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="A31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="A32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="A33" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="A34" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>294</v>
+        <v>48</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2246,10 +2344,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>271</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2258,10 +2356,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>273</v>
+        <v>57</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2270,10 +2368,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>24</v>
+        <v>51</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2282,10 +2380,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2294,10 +2392,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2306,10 +2404,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2317,59 +2415,59 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="A42" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="A43" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+      <c r="A44" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="A45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>275</v>
+      <c r="A46" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2377,11 +2475,11 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>293</v>
+      <c r="A47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2389,11 +2487,11 @@
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="2" t="s">
-        <v>48</v>
+      <c r="A48" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2402,10 +2500,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2414,10 +2512,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>390</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2425,10 +2523,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>374</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2438,10 +2536,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2450,10 +2548,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2462,10 +2560,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2474,10 +2572,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2486,10 +2584,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2497,222 +2595,214 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="A57" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="A58" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="A59" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="A60" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="A61" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="A62" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="62"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="A63" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="59"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" s="59"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>12</v>
+        <v>267</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
+      <c r="A70" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
+      <c r="A71" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>296</v>
+        <v>101</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2722,10 +2812,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>298</v>
+        <v>103</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2735,10 +2825,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2747,37 +2837,37 @@
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B77" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="A77" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="A78" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2786,37 +2876,37 @@
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
+      <c r="A80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
+      <c r="A81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>337</v>
+        <v>125</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2826,10 +2916,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>353</v>
+        <v>125</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2838,39 +2928,37 @@
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>376</v>
+      <c r="A84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>346</v>
+        <v>125</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>356</v>
+        <v>173</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2879,37 +2967,37 @@
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="A87" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="A88" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>126</v>
+      <c r="A89" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2919,10 +3007,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2931,102 +3019,104 @@
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>128</v>
+      <c r="A91" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
+      <c r="A93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="H94" s="21"/>
+      <c r="A94" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
+      <c r="A95" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="H96" s="21"/>
+      <c r="A96" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
+      <c r="A97" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>167</v>
+      <c r="A98" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3035,11 +3125,11 @@
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="2" t="s">
-        <v>169</v>
+      <c r="A99" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3048,805 +3138,805 @@
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="A100" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="A101" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="H101" s="20"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="A102" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="H104" s="21"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="15" t="s">
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="H105" s="21"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
-      <c r="H106" s="21"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="15" t="s">
+      <c r="B111" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="H111" s="20"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B107" s="28" t="s">
+      <c r="B112" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
-      <c r="H107" s="21"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="H108" s="21"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="15" t="s">
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="H112" s="20"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B109" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="H109" s="21"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="H110" s="21"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="H113" s="2"/>
+      <c r="B113" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="H113" s="20"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="H114" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="H114" s="20"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="H115" s="2"/>
+      <c r="B115" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="H115" s="20"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C116" s="21"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21"/>
-      <c r="H116" s="21"/>
+        <v>339</v>
+      </c>
+      <c r="B116" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="H116" s="20"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B117" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C117" s="21"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-      <c r="H117" s="21"/>
+      <c r="A117" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B117" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="H117" s="20"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B118" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-      <c r="H118" s="21"/>
+      <c r="A118" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B119" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
-      <c r="H119" s="21"/>
+      <c r="A119" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B119" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="H119" s="2"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="H120" s="21"/>
+      <c r="A120" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B120" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C121" s="21"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-      <c r="H121" s="21"/>
+      <c r="A121" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B121" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="H121" s="2"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
-      <c r="H122" s="21"/>
+      <c r="A122" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B122" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="A123" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="H123" s="20"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="H124" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="B124" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="H124" s="20"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="H125" s="2"/>
+      <c r="A125" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B125" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="H125" s="20"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="H126" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="B126" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="H126" s="20"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="H127" s="2"/>
+      <c r="A127" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="H127" s="20"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="H128" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="H128" s="20"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B129" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C129" s="21"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="H129" s="21"/>
+      <c r="A129" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="H129" s="20"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B130" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C130" s="21"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21"/>
-      <c r="H130" s="21"/>
+      <c r="A130" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="H130" s="2"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B131" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21"/>
-      <c r="H131" s="21"/>
+      <c r="A131" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="H131" s="2"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C132" s="21"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21"/>
-      <c r="H132" s="21"/>
+      <c r="A132" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="H133" s="21"/>
+      <c r="A133" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C134" s="21"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
-      <c r="H134" s="21"/>
+      <c r="A134" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="H135" s="2"/>
+      <c r="A135" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B135" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="H135" s="20"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="H136" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="B136" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="H136" s="20"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="H137" s="2"/>
+      <c r="A137" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B137" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="H137" s="20"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="H138" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="B138" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
+      <c r="H138" s="20"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="H139" s="2"/>
+      <c r="A139" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B139" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="H139" s="20"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B140" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="H140" s="20"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="G141" s="2"/>
+      <c r="A141" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="H141" s="20"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>309</v>
+        <v>373</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>310</v>
+      <c r="A143" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>310</v>
+        <v>78</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="59" t="s">
-        <v>379</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>79</v>
+      <c r="A145" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B146" s="60" t="s">
-        <v>339</v>
+        <v>78</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="B147" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="H147" s="21"/>
+      <c r="A147" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="B148" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="H148" s="21"/>
+      <c r="A148" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="G148" s="2"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="B149" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="H149" s="21"/>
+      <c r="A149" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="B150" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="H150" s="21"/>
+      <c r="A150" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B151" s="60" t="s">
-        <v>351</v>
+        <v>83</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>234</v>
+      <c r="A152" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" t="s">
-        <v>382</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>234</v>
+      <c r="A153" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="I153" s="21"/>
+      <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-    </row>
-    <row r="155" spans="1:9" s="66" customFormat="1">
-      <c r="A155" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B155" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="H155" s="2"/>
+      <c r="A154" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="H154" s="20"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="H155" s="20"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B156" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="H156" s="2"/>
+      <c r="A156" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="H156" s="20"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B157" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="H157" s="2"/>
+      <c r="A157" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="H157" s="20"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="B158" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="C158" s="21"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="H158" s="21"/>
+      <c r="A158" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="H158" s="2"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-      <c r="H159" s="21"/>
+      <c r="A159" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B160" s="60" t="s">
-        <v>285</v>
+      <c r="A160" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="G160" s="2"/>
+      <c r="I160" s="20"/>
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B161" s="60" t="s">
-        <v>285</v>
+        <v>181</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -3855,12 +3945,12 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:17" s="58" customFormat="1">
       <c r="A162" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -3868,12 +3958,12 @@
       <c r="F162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:17">
       <c r="A163" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>197</v>
+        <v>181</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -3881,12 +3971,12 @@
       <c r="F163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:17">
       <c r="A164" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B164" s="60" t="s">
-        <v>362</v>
+        <v>181</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -3894,142 +3984,170 @@
       <c r="F164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B165" s="60" t="s">
-        <v>364</v>
-      </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="H165" s="2"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="B166" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="C166" s="21"/>
-      <c r="D166" s="21"/>
-      <c r="E166" s="21"/>
-      <c r="F166" s="21"/>
-      <c r="H166" s="21"/>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="B167" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="C167" s="21"/>
-      <c r="D167" s="21"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="21"/>
-      <c r="H167" s="21"/>
-    </row>
-    <row r="168" spans="1:8">
+    <row r="165" spans="1:17">
+      <c r="A165" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="H165" s="20"/>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="H166" s="20"/>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B168" s="60" t="s">
-        <v>130</v>
+        <v>210</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:17">
       <c r="A169" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B169" s="60" t="s">
-        <v>132</v>
+        <v>388</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="H169" s="2"/>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="K169" s="12"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="20"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="20"/>
+      <c r="P169" s="20"/>
+      <c r="Q169" s="20"/>
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>77</v>
+        <v>379</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="H170" s="2"/>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="K170" s="12"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="20"/>
+      <c r="P170" s="20"/>
+      <c r="Q170" s="20"/>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>81</v>
+        <v>166</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="H171" s="2"/>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C172" s="21"/>
-      <c r="D172" s="21"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21"/>
-      <c r="H172" s="21"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C173" s="21"/>
-      <c r="D173" s="21"/>
-      <c r="E173" s="21"/>
-      <c r="F173" s="21"/>
-      <c r="H173" s="21"/>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="H174" s="2"/>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="K171" s="14"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="H173" s="20"/>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="H174" s="20"/>
+    </row>
+    <row r="175" spans="1:17">
       <c r="A175" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>93</v>
+        <v>214</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -4037,12 +4155,12 @@
       <c r="F175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:17">
       <c r="A176" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>104</v>
+        <v>383</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -4052,10 +4170,10 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>177</v>
+        <v>382</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -4065,10 +4183,10 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>179</v>
+        <v>137</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -4077,50 +4195,50 @@
       <c r="H178" s="2"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C179" s="21"/>
-      <c r="D179" s="21"/>
-      <c r="E179" s="21"/>
-      <c r="F179" s="21"/>
-      <c r="H179" s="21"/>
+      <c r="A179" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B179" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="H179" s="20"/>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C180" s="21"/>
-      <c r="D180" s="21"/>
-      <c r="E180" s="21"/>
-      <c r="F180" s="21"/>
-      <c r="H180" s="21"/>
+      <c r="A180" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B180" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="H180" s="20"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
-      <c r="E181" s="21"/>
-      <c r="F181" s="21"/>
-      <c r="H181" s="21"/>
+      <c r="A181" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="H181" s="2"/>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>185</v>
+        <v>137</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -4130,10 +4248,10 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B183" s="15" t="s">
-        <v>186</v>
+        <v>137</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -4143,10 +4261,10 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B184" s="15" t="s">
-        <v>188</v>
+        <v>137</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -4156,10 +4274,10 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B185" s="15" t="s">
-        <v>195</v>
+        <v>137</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -4168,50 +4286,50 @@
       <c r="H185" s="2"/>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B186" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="H186" s="2"/>
+      <c r="A186" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B186" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="H186" s="20"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B187" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="H187" s="2"/>
+      <c r="A187" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="H187" s="20"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B188" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="H188" s="2"/>
+      <c r="A188" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
+      <c r="H188" s="20"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>196</v>
+        <v>137</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -4221,62 +4339,62 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>198</v>
+        <v>137</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
+      <c r="H190" s="2"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B191" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="21"/>
+        <v>137</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="H191" s="2"/>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21"/>
-      <c r="H192" s="21"/>
+      <c r="A192" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="H192" s="2"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B193" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="21"/>
-      <c r="H193" s="21"/>
+      <c r="A193" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="H193" s="2"/>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>243</v>
+        <v>137</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -4286,10 +4404,10 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>245</v>
+        <v>137</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -4299,10 +4417,10 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -4312,10 +4430,10 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>89</v>
+        <v>121</v>
+      </c>
+      <c r="B197" s="67" t="s">
+        <v>122</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -4324,50 +4442,50 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="B198" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B199" s="58" t="s">
-        <v>342</v>
-      </c>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="H199" s="2"/>
+      <c r="A199" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="H199" s="20"/>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B200" s="58" t="s">
-        <v>344</v>
-      </c>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="H200" s="2"/>
+      <c r="A200" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B200" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
+      <c r="H200" s="20"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B201" s="64" t="s">
-        <v>120</v>
+        <v>384</v>
+      </c>
+      <c r="B201" s="53" t="s">
+        <v>341</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4377,10 +4495,10 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B202" s="64" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="B202" s="57" t="s">
+        <v>113</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4390,10 +4508,10 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>160</v>
+        <v>114</v>
+      </c>
+      <c r="B203" s="57" t="s">
+        <v>115</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4402,154 +4520,154 @@
       <c r="H203" s="2"/>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B204" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C204" s="21"/>
-      <c r="D204" s="21"/>
-      <c r="E204" s="21"/>
-      <c r="F204" s="21"/>
-      <c r="H204" s="21"/>
+      <c r="A204" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B205" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="H205" s="21"/>
+      <c r="A205" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B206" s="43" t="s">
-        <v>97</v>
+        <v>316</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
-      <c r="G206" s="6"/>
+      <c r="H206" s="2"/>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B207" s="43" t="s">
-        <v>98</v>
+        <v>262</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
-      <c r="G207" s="6"/>
+      <c r="H207" s="2"/>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="B212" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="C212" s="21"/>
-      <c r="D212" s="21"/>
-      <c r="E212" s="21"/>
-      <c r="F212" s="21"/>
-      <c r="G212" s="21"/>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="B213" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="C213" s="21"/>
-      <c r="D213" s="21"/>
-      <c r="E213" s="21"/>
-      <c r="F213" s="21"/>
-      <c r="G213" s="21"/>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B211" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="H211" s="20"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B212" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
+      <c r="H212" s="20"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="6"/>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>174</v>
+        <v>358</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="G214" s="6"/>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -4557,12 +4675,12 @@
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4570,12 +4688,12 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:8">
       <c r="A217" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B217" s="10" t="s">
-        <v>369</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4583,12 +4701,12 @@
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>371</v>
+        <v>217</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4596,38 +4714,38 @@
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="2" t="s">
+    <row r="219" spans="1:8">
+      <c r="A219" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B219" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="2" t="s">
+      <c r="B219" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B220" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="B220" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C220" s="20"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B221" s="15" t="s">
-        <v>219</v>
+      <c r="B221" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4635,51 +4753,51 @@
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="21" t="s">
+    <row r="222" spans="1:8">
+      <c r="A222" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B222" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C222" s="21"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="21"/>
-      <c r="F222" s="21"/>
-      <c r="G222" s="21"/>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="21" t="s">
+      <c r="B222" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B223" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C223" s="21"/>
-      <c r="D223" s="21"/>
-      <c r="E223" s="21"/>
-      <c r="F223" s="21"/>
-      <c r="G223" s="21"/>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="21" t="s">
+      <c r="B223" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B224" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C224" s="21"/>
-      <c r="D224" s="21"/>
-      <c r="E224" s="21"/>
-      <c r="F224" s="21"/>
-      <c r="G224" s="21"/>
+      <c r="B224" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B225" s="15" t="s">
-        <v>224</v>
+      <c r="B225" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -4688,37 +4806,37 @@
       <c r="G225" s="2"/>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="21" t="s">
+      <c r="A226" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B226" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C226" s="21"/>
-      <c r="D226" s="21"/>
-      <c r="E226" s="21"/>
-      <c r="F226" s="21"/>
-      <c r="G226" s="21"/>
+      <c r="B226" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="21" t="s">
+      <c r="A227" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B227" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C227" s="21"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="21"/>
-      <c r="F227" s="21"/>
-      <c r="G227" s="21"/>
+      <c r="B227" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>227</v>
+      <c r="B228" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4727,50 +4845,50 @@
       <c r="G228" s="2"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B229" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
+      <c r="B229" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="20"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="20"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B230" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
+      <c r="B230" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C230" s="20"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="20"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="20"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B231" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
+      <c r="B231" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="20"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>240</v>
+      <c r="B232" s="68" t="s">
+        <v>232</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4779,50 +4897,50 @@
       <c r="G232" s="2"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
+      <c r="B233" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="20"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="21" t="s">
+      <c r="A234" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B234" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C234" s="21"/>
-      <c r="D234" s="21"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="21"/>
+      <c r="B234" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C234" s="20"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="20"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="20"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B235" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C235" s="21"/>
-      <c r="D235" s="21"/>
-      <c r="E235" s="21"/>
-      <c r="F235" s="21"/>
-      <c r="G235" s="21"/>
+      <c r="A235" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B236" s="2" t="s">
         <v>237</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -4834,7 +4952,7 @@
       <c r="A237" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B237" s="15" t="s">
+      <c r="B237" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C237" s="2"/>
@@ -4847,7 +4965,7 @@
       <c r="A238" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B238" s="15" t="s">
+      <c r="B238" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C238" s="2"/>
@@ -4860,7 +4978,7 @@
       <c r="A239" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B239" s="15" t="s">
+      <c r="B239" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C239" s="2"/>
@@ -4871,10 +4989,10 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B240" s="15" t="s">
-        <v>251</v>
+        <v>87</v>
+      </c>
+      <c r="B240" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -4883,50 +5001,50 @@
       <c r="G240" s="2"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="21" t="s">
+      <c r="A241" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B241" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C241" s="20"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="20"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="20"/>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C242" s="20"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="20"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="20"/>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B243" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B241" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C241" s="21"/>
-      <c r="D241" s="21"/>
-      <c r="E241" s="21"/>
-      <c r="F241" s="21"/>
-      <c r="G241" s="21"/>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C242" s="21"/>
-      <c r="D242" s="21"/>
-      <c r="E242" s="21"/>
-      <c r="F242" s="21"/>
-      <c r="G242" s="21"/>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B243" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C243" s="21"/>
-      <c r="D243" s="21"/>
-      <c r="E243" s="21"/>
-      <c r="F243" s="21"/>
-      <c r="G243" s="21"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B244" s="15" t="s">
-        <v>74</v>
+        <v>251</v>
+      </c>
+      <c r="B244" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -4936,10 +5054,10 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B245" s="15" t="s">
-        <v>246</v>
+        <v>251</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -4949,10 +5067,10 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B246" s="15" t="s">
-        <v>248</v>
+        <v>75</v>
+      </c>
+      <c r="B246" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -4962,10 +5080,10 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B247" s="15" t="s">
-        <v>108</v>
+        <v>246</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -4973,64 +5091,64 @@
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="248" spans="1:7" ht="53">
-      <c r="A248" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B248" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
+    <row r="248" spans="1:7">
+      <c r="A248" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="20"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="20"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B249" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
+      <c r="A249" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="20"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="B250" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C250" s="21"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="21"/>
-      <c r="F250" s="21"/>
-      <c r="G250" s="21"/>
+      <c r="A250" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="20"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="B251" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="C251" s="21"/>
-      <c r="D251" s="21"/>
-      <c r="E251" s="21"/>
-      <c r="F251" s="21"/>
-      <c r="G251" s="21"/>
+      <c r="A251" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B252" s="40" t="s">
-        <v>301</v>
+        <v>389</v>
+      </c>
+      <c r="B252" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -5038,12 +5156,12 @@
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
     </row>
-    <row r="253" spans="1:7" ht="168">
+    <row r="253" spans="1:7">
       <c r="A253" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B253" s="44" t="s">
-        <v>305</v>
+        <v>206</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -5051,7 +5169,231 @@
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
     </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B255" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B257" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C257" s="20"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="20"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="20"/>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B258" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="C258" s="20"/>
+      <c r="D258" s="20"/>
+      <c r="E258" s="20"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="20"/>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B261" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B262" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="H263" s="2"/>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B264" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="H264" s="2"/>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="H265" s="2"/>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+    </row>
   </sheetData>
+  <sortState ref="A1:B270">
+    <sortCondition ref="A270"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5066,172 +5408,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225:G238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="57" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="54" customFormat="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" s="49" customFormat="1">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" s="54" customFormat="1">
-      <c r="A2" s="55" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" s="49" customFormat="1">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3" spans="1:7" s="54" customFormat="1">
-      <c r="A3" s="56" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" s="49" customFormat="1">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:7" s="54" customFormat="1">
-      <c r="A4" s="52" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" s="49" customFormat="1">
+      <c r="A4" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="54" customFormat="1">
-      <c r="A5" s="56" t="s">
+    </row>
+    <row r="5" spans="1:7" s="49" customFormat="1">
+      <c r="A5" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="1:7" s="54" customFormat="1">
-      <c r="A6" s="56" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" s="49" customFormat="1">
+      <c r="A6" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-    </row>
-    <row r="7" spans="1:7" s="54" customFormat="1">
-      <c r="A7" s="57" t="s">
+      <c r="C6" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" s="49" customFormat="1">
+      <c r="A7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>323</v>
+      <c r="A11" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -5240,11 +5582,11 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5253,11 +5595,11 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -5278,48 +5620,48 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="2"/>
@@ -5332,7 +5674,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="2"/>
@@ -5345,7 +5687,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="2"/>
@@ -5358,7 +5700,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="2"/>
@@ -5371,54 +5713,54 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -5426,12 +5768,12 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -5439,12 +5781,12 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -5503,65 +5845,65 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -5569,12 +5911,12 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -5687,30 +6029,30 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
@@ -5796,26 +6138,26 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -5834,219 +6176,219 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" ht="28">
-      <c r="A64" s="50" t="s">
-        <v>277</v>
+      <c r="A64" s="45" t="s">
+        <v>276</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7" ht="40">
-      <c r="A70" s="27" t="s">
-        <v>353</v>
+      <c r="A70" s="25" t="s">
+        <v>352</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B73" s="2"/>
@@ -6124,56 +6466,56 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" ht="42">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="G80" s="21"/>
+      <c r="G80" s="20"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="51" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="G81" s="21"/>
+      <c r="G81" s="20"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="17" t="s">
         <v>163</v>
       </c>
       <c r="F82" s="2"/>
@@ -6206,7 +6548,7 @@
       <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B85" s="2"/>
@@ -6219,7 +6561,7 @@
       <c r="G85" s="2"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="48" t="s">
+      <c r="A86" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="2"/>
@@ -6247,49 +6589,49 @@
       <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F88" s="21" t="s">
+      <c r="F88" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G88" s="21"/>
+      <c r="G88" s="20"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21" t="s">
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F89" s="21" t="s">
+      <c r="F89" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G89" s="21"/>
+      <c r="G89" s="20"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21" t="s">
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F90" s="21" t="s">
+      <c r="F90" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G90" s="21"/>
+      <c r="G90" s="20"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="10" t="s">
@@ -6337,49 +6679,49 @@
       <c r="G93" s="2"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21" t="s">
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F94" s="21" t="s">
+      <c r="F94" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G94" s="21"/>
+      <c r="G94" s="20"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21" t="s">
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F95" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G95" s="21"/>
+      <c r="G95" s="20"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21" t="s">
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G96" s="21"/>
+      <c r="G96" s="20"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="10" t="s">
@@ -6427,49 +6769,49 @@
       <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21" t="s">
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F100" s="21" t="s">
+      <c r="F100" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G100" s="21"/>
+      <c r="G100" s="20"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21" t="s">
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F101" s="21" t="s">
+      <c r="F101" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G101" s="21"/>
+      <c r="G101" s="20"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21" t="s">
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F102" s="21" t="s">
+      <c r="F102" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G102" s="21"/>
+      <c r="G102" s="20"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="10" t="s">
@@ -6518,7 +6860,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6528,12 +6870,12 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6543,11 +6885,11 @@
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B108" s="2"/>
@@ -6561,165 +6903,165 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="G110" s="21"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="G110" s="20"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="G111" s="21"/>
+      <c r="A111" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="G111" s="20"/>
     </row>
     <row r="112" spans="1:7" ht="42">
-      <c r="A112" s="49" t="s">
+      <c r="A112" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21" t="s">
+      <c r="G112" s="20"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="G112" s="21"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="B113" s="21"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="G113" s="21"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="G113" s="20"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G114" s="2"/>
     </row>
     <row r="115" spans="1:7" ht="27">
-      <c r="A115" s="19" t="s">
-        <v>234</v>
+      <c r="A115" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G116" s="2"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G117" s="2"/>
     </row>
     <row r="118" spans="1:7" ht="28">
-      <c r="A118" s="24" t="s">
-        <v>289</v>
+      <c r="A118" s="23" t="s">
+        <v>288</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G118" s="2"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="G119" s="21"/>
+      <c r="G119" s="20"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="21"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21" t="s">
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="G120" s="21"/>
+      <c r="G120" s="20"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6733,7 +7075,7 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="14" t="s">
         <v>189</v>
       </c>
       <c r="B122" s="2"/>
@@ -6746,7 +7088,7 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="14" t="s">
         <v>197</v>
       </c>
       <c r="B123" s="2"/>
@@ -6759,56 +7101,56 @@
       <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="22" t="s">
-        <v>362</v>
+      <c r="A124" s="21" t="s">
+        <v>361</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G124" s="2"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G125" s="2"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="28" t="s">
+      <c r="A126" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="B126" s="21"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21" t="s">
+      <c r="G126" s="20"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="G126" s="21"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="G127" s="21"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G127" s="20"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="10" t="s">
@@ -6837,7 +7179,7 @@
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B130" s="2"/>
@@ -6850,7 +7192,7 @@
       <c r="G130" s="2"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B131" s="2"/>
@@ -6863,33 +7205,33 @@
       <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21" t="s">
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G132" s="21"/>
+      <c r="G132" s="20"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21" t="s">
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G133" s="21"/>
+      <c r="G133" s="20"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B134" s="2"/>
@@ -6902,7 +7244,7 @@
       <c r="G134" s="2"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B135" s="2"/>
@@ -6915,7 +7257,7 @@
       <c r="G135" s="2"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B136" s="2"/>
@@ -6928,7 +7270,7 @@
       <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B137" s="2"/>
@@ -6941,7 +7283,7 @@
       <c r="G137" s="2"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="14" t="s">
         <v>179</v>
       </c>
       <c r="B138" s="2"/>
@@ -6954,46 +7296,46 @@
       <c r="G138" s="2"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21" t="s">
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="G139" s="21"/>
+      <c r="G139" s="20"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B140" s="21"/>
-      <c r="C140" s="21"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21" t="s">
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="G140" s="21"/>
+      <c r="G140" s="20"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21" t="s">
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="G141" s="21"/>
+      <c r="G141" s="20"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="14" t="s">
         <v>185</v>
       </c>
       <c r="B142" s="2"/>
@@ -7006,7 +7348,7 @@
       <c r="G142" s="2"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="14" t="s">
         <v>186</v>
       </c>
       <c r="B143" s="2"/>
@@ -7019,7 +7361,7 @@
       <c r="G143" s="2"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="14" t="s">
         <v>188</v>
       </c>
       <c r="B144" s="2"/>
@@ -7032,7 +7374,7 @@
       <c r="G144" s="2"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="14" t="s">
         <v>195</v>
       </c>
       <c r="B145" s="2"/>
@@ -7045,7 +7387,7 @@
       <c r="G145" s="2"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="14" t="s">
         <v>180</v>
       </c>
       <c r="B146" s="2"/>
@@ -7058,7 +7400,7 @@
       <c r="G146" s="2"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B147" s="2"/>
@@ -7071,7 +7413,7 @@
       <c r="G147" s="2"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B148" s="2"/>
@@ -7084,7 +7426,7 @@
       <c r="G148" s="2"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="14" t="s">
         <v>196</v>
       </c>
       <c r="B149" s="2"/>
@@ -7097,7 +7439,7 @@
       <c r="G149" s="2"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="14" t="s">
         <v>198</v>
       </c>
       <c r="B150" s="2"/>
@@ -7112,54 +7454,54 @@
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B151" s="21"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21" t="s">
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="G151" s="21"/>
+      <c r="G151" s="20"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="B152" s="21"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21" t="s">
+      <c r="A152" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="G152" s="21"/>
+      <c r="G152" s="20"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G153" s="2"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G154" s="2"/>
     </row>
@@ -7191,32 +7533,32 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G157" s="2"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G158" s="2"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="40" t="s">
+      <c r="A159" s="37" t="s">
         <v>120</v>
       </c>
       <c r="B159" s="2"/>
@@ -7229,7 +7571,7 @@
       <c r="G159" s="2"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="40" t="s">
+      <c r="A160" s="37" t="s">
         <v>122</v>
       </c>
       <c r="B160" s="2"/>
@@ -7255,33 +7597,33 @@
       <c r="G161" s="2"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="36" t="s">
+      <c r="A162" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B162" s="21"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21" t="s">
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="G162" s="21"/>
+      <c r="G162" s="20"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="36" t="s">
+      <c r="A163" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B163" s="21"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21" t="s">
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="G163" s="21"/>
+      <c r="G163" s="20"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="43" t="s">
+      <c r="A164" s="40" t="s">
         <v>97</v>
       </c>
       <c r="B164" s="2"/>
@@ -7293,7 +7635,7 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="43" t="s">
+      <c r="A165" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B165" s="2"/>
@@ -7306,7 +7648,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7314,12 +7656,12 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7327,12 +7669,12 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7340,12 +7682,12 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7353,33 +7695,33 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="B170" s="21"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="21"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21" t="s">
-        <v>263</v>
+      <c r="A170" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="21"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21" t="s">
-        <v>263</v>
+      <c r="A171" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7397,7 +7739,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7405,12 +7747,12 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7418,12 +7760,12 @@
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7431,12 +7773,12 @@
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7444,11 +7786,11 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="14" t="s">
         <v>216</v>
       </c>
       <c r="B177" s="2"/>
@@ -7461,7 +7803,7 @@
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="14" t="s">
         <v>218</v>
       </c>
       <c r="B178" s="2"/>
@@ -7474,7 +7816,7 @@
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="15" t="s">
+      <c r="A179" s="14" t="s">
         <v>219</v>
       </c>
       <c r="B179" s="2"/>
@@ -7487,46 +7829,46 @@
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="13" t="s">
+      <c r="A180" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B180" s="21"/>
-      <c r="C180" s="21"/>
-      <c r="D180" s="21"/>
-      <c r="E180" s="21"/>
-      <c r="F180" s="21"/>
-      <c r="G180" s="21" t="s">
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="13" t="s">
+      <c r="A181" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B181" s="21"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
-      <c r="E181" s="21"/>
-      <c r="F181" s="21"/>
-      <c r="G181" s="21" t="s">
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="13" t="s">
+      <c r="A182" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B182" s="21"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21" t="s">
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="15" t="s">
+      <c r="A183" s="14" t="s">
         <v>224</v>
       </c>
       <c r="B183" s="2"/>
@@ -7539,28 +7881,28 @@
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="13" t="s">
+      <c r="A184" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B184" s="21"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="21"/>
-      <c r="G184" s="21" t="s">
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="13" t="s">
+      <c r="A185" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B185" s="21"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="21"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="21"/>
-      <c r="G185" s="21" t="s">
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20" t="s">
         <v>217</v>
       </c>
     </row>
@@ -7578,8 +7920,8 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="41" t="s">
-        <v>230</v>
+      <c r="A187" s="38" t="s">
+        <v>229</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7591,8 +7933,8 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="41" t="s">
-        <v>232</v>
+      <c r="A188" s="38" t="s">
+        <v>231</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7604,8 +7946,8 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="41" t="s">
-        <v>233</v>
+      <c r="A189" s="38" t="s">
+        <v>232</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7618,7 +7960,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7631,7 +7973,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7643,34 +7985,34 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B192" s="21"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21" t="s">
+      <c r="A192" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B193" s="21"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="21"/>
-      <c r="G193" s="21" t="s">
+      <c r="A193" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7678,11 +8020,11 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B195" s="2"/>
@@ -7695,7 +8037,7 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="15" t="s">
+      <c r="A196" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B196" s="2"/>
@@ -7708,7 +8050,7 @@
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B197" s="2"/>
@@ -7721,8 +8063,8 @@
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="15" t="s">
-        <v>251</v>
+      <c r="A198" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7730,50 +8072,50 @@
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="12" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="13" t="s">
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B199" s="21"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="21"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="13" t="s">
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="21"/>
-      <c r="E200" s="21"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21"/>
-      <c r="G201" s="21" t="s">
-        <v>252</v>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="20" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B202" s="2"/>
@@ -7786,8 +8128,8 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="15" t="s">
-        <v>246</v>
+      <c r="A203" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7795,12 +8137,12 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="14" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7808,11 +8150,11 @@
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B205" s="2"/>
@@ -7825,7 +8167,7 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="19" t="s">
+      <c r="A206" s="18" t="s">
         <v>205</v>
       </c>
       <c r="B206" s="2"/>
@@ -7839,7 +8181,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7847,38 +8189,38 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="28" t="s">
+      <c r="A208" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="B208" s="21"/>
-      <c r="C208" s="21"/>
-      <c r="D208" s="21"/>
-      <c r="E208" s="21"/>
-      <c r="F208" s="21"/>
-      <c r="G208" s="21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="B209" s="21"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="21"/>
-      <c r="E209" s="21"/>
-      <c r="F209" s="21"/>
-      <c r="G209" s="21" t="s">
-        <v>308</v>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="20" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="40" t="s">
-        <v>301</v>
+      <c r="A210" s="37" t="s">
+        <v>300</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7886,12 +8228,12 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="28">
-      <c r="A211" s="44" t="s">
-        <v>305</v>
+      <c r="A211" s="41" t="s">
+        <v>304</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7899,7 +8241,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -7921,7 +8263,7 @@
       <c r="G213" s="2"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="31" t="s">
+      <c r="A214" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B214" s="11"/>
@@ -7932,7 +8274,7 @@
       <c r="G214" s="11"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="45"/>
+      <c r="A215" s="42"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
@@ -7941,7 +8283,7 @@
       <c r="G215" s="11"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="45"/>
+      <c r="A216" s="42"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
@@ -7950,24 +8292,24 @@
       <c r="G216" s="11"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="42" t="s">
+      <c r="A217" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B217" s="37"/>
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
-      <c r="E217" s="37"/>
-      <c r="F217" s="37"/>
-      <c r="G217" s="37"/>
+      <c r="B217" s="35"/>
+      <c r="C217" s="35"/>
+      <c r="D217" s="35"/>
+      <c r="E217" s="35"/>
+      <c r="F217" s="35"/>
+      <c r="G217" s="35"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="28"/>
-      <c r="B218" s="37"/>
-      <c r="C218" s="37"/>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
-      <c r="F218" s="37"/>
-      <c r="G218" s="37"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="35"/>
+      <c r="E218" s="35"/>
+      <c r="F218" s="35"/>
+      <c r="G218" s="35"/>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="10"/>
@@ -7979,7 +8321,7 @@
       <c r="G219" s="11"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="33" t="s">
+      <c r="A220" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B220" s="11"/>
@@ -8008,7 +8350,7 @@
       <c r="G222" s="11"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="34" t="s">
+      <c r="A223" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B223" s="11"/>
@@ -8019,204 +8361,240 @@
       <c r="G223" s="11"/>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="42" t="s">
+      <c r="A224" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B224" s="37"/>
-      <c r="C224" s="37"/>
-      <c r="D224" s="37"/>
-      <c r="E224" s="37"/>
-      <c r="F224" s="37"/>
-      <c r="G224" s="37"/>
+      <c r="B224" s="35"/>
+      <c r="C224" s="35"/>
+      <c r="D224" s="35"/>
+      <c r="E224" s="35"/>
+      <c r="F224" s="35"/>
+      <c r="G224" s="35"/>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="13" t="s">
+      <c r="A225" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E225" s="20"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="20"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="B225" s="21"/>
-      <c r="C225" s="21"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="21"/>
-      <c r="G225" s="21"/>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B226" s="21"/>
-      <c r="C226" s="21"/>
-      <c r="D226" s="21"/>
-      <c r="E226" s="21"/>
-      <c r="F226" s="21"/>
-      <c r="G226" s="21"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="D227" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="1"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
-      <c r="E228" s="11"/>
-      <c r="F228" s="11"/>
-      <c r="G228" s="11"/>
+      <c r="A228" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
-      <c r="E229" s="11"/>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
+      <c r="A229" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="15" t="s">
-        <v>63</v>
+      <c r="A230" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
+      <c r="D230" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="15"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
+      <c r="A231" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G231" s="2"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
-      <c r="E232" s="11"/>
-      <c r="F232" s="11"/>
-      <c r="G232" s="11"/>
+      <c r="A232" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G232" s="2"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="15" t="s">
-        <v>76</v>
+      <c r="A233" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
+      <c r="F233" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="15" t="s">
-        <v>84</v>
+      <c r="A234" s="14" t="s">
+        <v>317</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
+      <c r="G234" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="10"/>
+      <c r="A235" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
+      <c r="G235" s="2" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="33" t="s">
-        <v>85</v>
+      <c r="A236" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
+      <c r="G236" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="10"/>
+      <c r="A237" s="18" t="s">
+        <v>207</v>
+      </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
+      <c r="G237" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="15"/>
+      <c r="A238" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
+      <c r="G238" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
+      <c r="A239" s="10"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="10"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
+      <c r="A240" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="10"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
+      <c r="A241" s="14"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
+      <c r="A242" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="A243" s="10"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -8225,27 +8603,27 @@
       <c r="G243" s="2"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="10"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
-      <c r="F244" s="11"/>
-      <c r="G244" s="11"/>
+      <c r="A244" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="10"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
-      <c r="F245" s="11"/>
-      <c r="G245" s="11"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="33" t="s">
-        <v>117</v>
-      </c>
+      <c r="A246" s="14"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -8254,36 +8632,38 @@
       <c r="G246" s="2"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="39"/>
-      <c r="B247" s="37"/>
-      <c r="C247" s="37"/>
-      <c r="D247" s="37"/>
-      <c r="E247" s="37"/>
-      <c r="F247" s="37"/>
-      <c r="G247" s="37"/>
+      <c r="A247" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="20"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="20"/>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="39"/>
-      <c r="B248" s="37"/>
-      <c r="C248" s="37"/>
-      <c r="D248" s="37"/>
-      <c r="E248" s="37"/>
-      <c r="F248" s="37"/>
-      <c r="G248" s="37"/>
+      <c r="A248" s="26"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="20"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="20"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B249" s="21"/>
-      <c r="C249" s="21"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="21"/>
-      <c r="F249" s="21"/>
-      <c r="G249" s="21"/>
+      <c r="A249" s="26"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="20"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="10"/>
+      <c r="A250" s="31" t="s">
+        <v>112</v>
+      </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -8292,7 +8672,9 @@
       <c r="G250" s="2"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="10"/>
+      <c r="A251" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -8301,59 +8683,55 @@
       <c r="G251" s="2"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
+      <c r="A252" s="10"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="21"/>
-      <c r="F253" s="21"/>
-      <c r="G253" s="21"/>
+      <c r="A253" s="26"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="35"/>
+      <c r="D253" s="35"/>
+      <c r="E253" s="35"/>
+      <c r="F253" s="35"/>
+      <c r="G253" s="35"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="28"/>
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="21"/>
-      <c r="F254" s="21"/>
-      <c r="G254" s="21"/>
+      <c r="A254" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="20"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B255" s="21"/>
-      <c r="C255" s="21"/>
-      <c r="D255" s="21"/>
-      <c r="E255" s="21"/>
-      <c r="F255" s="21"/>
-      <c r="G255" s="21"/>
+      <c r="A255" s="36"/>
+      <c r="B255" s="35"/>
+      <c r="C255" s="35"/>
+      <c r="D255" s="35"/>
+      <c r="E255" s="35"/>
+      <c r="F255" s="35"/>
+      <c r="G255" s="35"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="10"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
+      <c r="A256" s="63"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="11"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="11"/>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="33" t="s">
-        <v>148</v>
+      <c r="A257" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8372,9 +8750,7 @@
       <c r="G258" s="2"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="33" t="s">
-        <v>153</v>
-      </c>
+      <c r="A259" s="10"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -8383,7 +8759,9 @@
       <c r="G259" s="2"/>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="10"/>
+      <c r="A260" s="32" t="s">
+        <v>133</v>
+      </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -8392,150 +8770,144 @@
       <c r="G260" s="2"/>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="28"/>
-      <c r="B261" s="21"/>
-      <c r="C261" s="21"/>
-      <c r="D261" s="21"/>
-      <c r="E261" s="21"/>
-      <c r="F261" s="21"/>
-      <c r="G261" s="21"/>
+      <c r="A261" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="20"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="20"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="47" t="s">
+      <c r="A262" s="26"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="20"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="20"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="20"/>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="10"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="10"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="20"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="20"/>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="26"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="20"/>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="26"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="B262" s="37"/>
-      <c r="C262" s="37"/>
-      <c r="D262" s="37"/>
-      <c r="E262" s="37"/>
-      <c r="F262" s="37"/>
-      <c r="G262" s="37"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="28"/>
-      <c r="B263" s="37"/>
-      <c r="C263" s="37"/>
-      <c r="D263" s="37"/>
-      <c r="E263" s="37"/>
-      <c r="F263" s="37"/>
-      <c r="G263" s="37"/>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="33" t="s">
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="10"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
-      <c r="E264" s="11"/>
-      <c r="F264" s="11"/>
-      <c r="G264" s="11"/>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="10"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11"/>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="33" t="s">
+      <c r="B272" s="11"/>
+      <c r="C272" s="11"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="10"/>
+      <c r="B273" s="11"/>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
-      <c r="D266" s="11"/>
-      <c r="E266" s="11"/>
-      <c r="F266" s="11"/>
-      <c r="G266" s="11"/>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="28"/>
-      <c r="B267" s="37"/>
-      <c r="C267" s="37"/>
-      <c r="D267" s="37"/>
-      <c r="E267" s="37"/>
-      <c r="F267" s="37"/>
-      <c r="G267" s="37"/>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="B268" s="37"/>
-      <c r="C268" s="37"/>
-      <c r="D268" s="37"/>
-      <c r="E268" s="37"/>
-      <c r="F268" s="37"/>
-      <c r="G268" s="37"/>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B269" s="21"/>
-      <c r="C269" s="21"/>
-      <c r="D269" s="21"/>
-      <c r="E269" s="21"/>
-      <c r="F269" s="21"/>
-      <c r="G269" s="21"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="10"/>
@@ -8547,47 +8919,46 @@
       <c r="G275" s="11"/>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="20"/>
-      <c r="B276" s="7"/>
-      <c r="C276" s="7"/>
-      <c r="D276" s="7"/>
-      <c r="E276" s="7"/>
-      <c r="F276" s="7"/>
-      <c r="G276" s="7"/>
+      <c r="A276" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B276" s="35"/>
+      <c r="C276" s="35"/>
+      <c r="D276" s="35"/>
+      <c r="E276" s="35"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="35"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="12" t="s">
+      <c r="A277" s="26"/>
+      <c r="B277" s="35"/>
+      <c r="C277" s="35"/>
+      <c r="D277" s="35"/>
+      <c r="E277" s="35"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="20"/>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="19"/>
+      <c r="B278" s="7"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="20"/>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="B277" s="7"/>
-      <c r="C277" s="7"/>
-      <c r="D277" s="7"/>
-      <c r="E277" s="7"/>
-      <c r="F277" s="7"/>
-      <c r="G277" s="7"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="13"/>
-      <c r="B278" s="37"/>
-      <c r="C278" s="37"/>
-      <c r="D278" s="37"/>
-      <c r="E278" s="37"/>
-      <c r="F278" s="37"/>
-      <c r="G278" s="37"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="33" t="s">
-        <v>215</v>
       </c>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
-      <c r="F279" s="11"/>
-      <c r="G279" s="11"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="15"/>
+      <c r="A280" s="14"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -8596,8 +8967,8 @@
       <c r="G280" s="11"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="33" t="s">
-        <v>223</v>
+      <c r="A281" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
@@ -8607,18 +8978,18 @@
       <c r="G281" s="11"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
+      <c r="A282" s="14"/>
+      <c r="B282" s="11"/>
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="46"/>
+      <c r="A283" s="29" t="s">
+        <v>223</v>
+      </c>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -8627,18 +8998,16 @@
       <c r="G283" s="11"/>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="10"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
-      <c r="E284" s="11"/>
-      <c r="F284" s="11"/>
-      <c r="G284" s="11"/>
+      <c r="A284" s="14"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="34" t="s">
-        <v>229</v>
-      </c>
+      <c r="A285" s="63"/>
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
@@ -8647,7 +9016,7 @@
       <c r="G285" s="11"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="2"/>
+      <c r="A286" s="10"/>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
@@ -8656,8 +9025,8 @@
       <c r="G286" s="11"/>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="33" t="s">
-        <v>239</v>
+      <c r="A287" s="32" t="s">
+        <v>228</v>
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
@@ -8667,7 +9036,7 @@
       <c r="G287" s="11"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="15"/>
+      <c r="A288" s="2"/>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
@@ -8676,8 +9045,8 @@
       <c r="G288" s="11"/>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="33" t="s">
-        <v>249</v>
+      <c r="A289" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
@@ -8687,27 +9056,27 @@
       <c r="G289" s="11"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="10"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
+      <c r="A290" s="14"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="25"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
+      <c r="A291" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B291" s="11"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="33" t="s">
-        <v>256</v>
-      </c>
+      <c r="A292" s="10"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -8725,7 +9094,9 @@
       <c r="G293" s="2"/>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="10"/>
+      <c r="A294" s="31" t="s">
+        <v>255</v>
+      </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -8734,9 +9105,7 @@
       <c r="G294" s="2"/>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="29" t="s">
-        <v>288</v>
-      </c>
+      <c r="A295" s="10"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -8745,27 +9114,27 @@
       <c r="G295" s="2"/>
     </row>
     <row r="296" spans="1:7">
-      <c r="B296" s="21"/>
+      <c r="A296" s="26"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="20"/>
+      <c r="E296" s="20"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="20"/>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="28"/>
-      <c r="B297" s="21"/>
-      <c r="C297" s="21"/>
-      <c r="D297" s="21"/>
-      <c r="E297" s="21"/>
-      <c r="F297" s="21"/>
-      <c r="G297" s="21"/>
+      <c r="A297" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="20"/>
+      <c r="E297" s="20"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="20"/>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="B298" s="21"/>
-      <c r="C298" s="21"/>
-      <c r="D298" s="21"/>
-      <c r="E298" s="21"/>
-      <c r="F298" s="21"/>
-      <c r="G298" s="21"/>
+      <c r="B298" s="20"/>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="10"/>
@@ -8777,7 +9146,9 @@
       <c r="G299" s="2"/>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="10"/>
+      <c r="A300" s="27" t="s">
+        <v>291</v>
+      </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -8786,9 +9157,7 @@
       <c r="G300" s="2"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="29" t="s">
-        <v>300</v>
-      </c>
+      <c r="A301" s="10"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -8806,7 +9175,9 @@
       <c r="G302" s="2"/>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="10"/>
+      <c r="A303" s="27" t="s">
+        <v>299</v>
+      </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -8815,9 +9186,7 @@
       <c r="G303" s="2"/>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="29" t="s">
-        <v>306</v>
-      </c>
+      <c r="A304" s="10"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -8826,29 +9195,27 @@
       <c r="G304" s="2"/>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="B305" s="21"/>
-      <c r="C305" s="21"/>
-      <c r="D305" s="21"/>
-      <c r="E305" s="21"/>
-      <c r="F305" s="21"/>
-      <c r="G305" s="21"/>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="28"/>
-      <c r="B307" s="21"/>
-      <c r="C307" s="21"/>
-      <c r="D307" s="21"/>
-      <c r="E307" s="21"/>
-      <c r="F307" s="21"/>
-      <c r="G307" s="21"/>
+      <c r="A305" s="26"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="20"/>
+      <c r="E305" s="20"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="20"/>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
+      <c r="D306" s="20"/>
+      <c r="E306" s="20"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="20"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="29" t="s">
-        <v>314</v>
-      </c>
+      <c r="A308" s="10"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -8857,8 +9224,8 @@
       <c r="G308" s="2"/>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="15" t="s">
-        <v>318</v>
+      <c r="A309" s="27" t="s">
+        <v>313</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -8868,8 +9235,8 @@
       <c r="G309" s="2"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="26" t="s">
-        <v>345</v>
+      <c r="A312" s="24" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -8891,8 +9258,8 @@
       <c r="G314" s="2"/>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="29" t="s">
-        <v>357</v>
+      <c r="A315" s="27" t="s">
+        <v>356</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -8911,8 +9278,8 @@
       <c r="G316" s="2"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="23" t="s">
-        <v>361</v>
+      <c r="A318" s="22" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -8925,8 +9292,8 @@
       <c r="G320" s="2"/>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="29" t="s">
-        <v>368</v>
+      <c r="A321" s="27" t="s">
+        <v>367</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -8936,13 +9303,13 @@
       <c r="G321" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A1:G322">
-    <sortCondition ref="B1:B322"/>
-    <sortCondition ref="C1:C322"/>
-    <sortCondition ref="D1:D322"/>
-    <sortCondition ref="E1:E322"/>
-    <sortCondition ref="F1:F322"/>
-    <sortCondition ref="G1:G322"/>
+  <sortState ref="A225:G309">
+    <sortCondition ref="B225:B309"/>
+    <sortCondition ref="C225:C309"/>
+    <sortCondition ref="D225:D309"/>
+    <sortCondition ref="E225:E309"/>
+    <sortCondition ref="F225:F309"/>
+    <sortCondition ref="G225:G309"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
